--- a/vertx-pin/zero-is/src/main/resources/plugin/is/oob/cab/i.directory.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/plugin/is/oob/cab/i.directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/plugin/is/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE9CC2C-AF0F-7243-A1A7-50DB6A9D5D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB578463-EDA5-474E-B5BC-5D1DBA1E2F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62400" yWindow="-4720" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62400" yWindow="-4720" windowWidth="42840" windowHeight="26960" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="189">
   <si>
     <t>key</t>
   </si>
@@ -597,6 +597,36 @@
   </si>
   <si>
     <t>6d2f8efa-6052-4a07-a477-2e9f8bceba49</t>
+  </si>
+  <si>
+    <t>res.directory.trash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到回收站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401245ea-fc64-4706-af86-a59ed3e3940d</t>
+  </si>
+  <si>
+    <t>act.directory.trash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/i-directory/trash/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acd60b34-f7cf-4992-a082-4ba9bc4ee940</t>
   </si>
 </sst>
 </file>
@@ -1235,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K64"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1627,7 +1657,7 @@
         <v>166</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f t="shared" ref="B28:B42" si="0">A48</f>
+        <f t="shared" ref="B28:B32" si="0">A49</f>
         <v>18f7c146-c1c7-495d-b8e9-cb928caa6436</v>
       </c>
       <c r="C28" s="16" t="str">
@@ -1740,143 +1770,143 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="16" t="str">
+        <f>A53</f>
+        <v>401245ea-fc64-4706-af86-a59ed3e3940d</v>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f>A18</f>
+        <v>7d87eb8f-6018-401e-9974-380ec651ea04</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="12">
+        <v>12</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B33" s="16" t="str">
+        <f>A54</f>
         <v>ac5e7b95-d250-475a-be6d-4601106a51d8</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C33" s="16" t="str">
         <f>A15</f>
         <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H33" s="12">
         <v>1</v>
       </c>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B34" s="16" t="str">
+        <f>A55</f>
         <v>36ed885e-e1b2-4f02-89e9-26845b13829b</v>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C34" s="16" t="str">
         <f>A17</f>
         <v>f79de101-51d4-4fa7-9e4f-573e317a45f5</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H34" s="12">
         <v>8</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B35" s="16" t="str">
+        <f>A56</f>
         <v>95f8fcae-4480-487f-af3f-463cb0048d62</v>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C35" s="16" t="str">
         <f>A18</f>
         <v>7d87eb8f-6018-401e-9974-380ec651ea04</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="12">
         <v>12</v>
-      </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>ce69b312-a028-48b1-9f93-537e9932b11a</v>
-      </c>
-      <c r="C35" s="16" t="str">
-        <f>A19</f>
-        <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="12">
-        <v>3</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>afeff157-06cc-47c6-b157-8c8d08d75d6c</v>
+        <f>A57</f>
+        <v>ce69b312-a028-48b1-9f93-537e9932b11a</v>
       </c>
       <c r="C36" s="16" t="str">
         <f>A19</f>
         <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36" s="12">
         <v>3</v>
@@ -1885,143 +1915,143 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>fe140809-8a79-4641-ac54-3a8d47738707</v>
+        <f>A58</f>
+        <v>afeff157-06cc-47c6-b157-8c8d08d75d6c</v>
       </c>
       <c r="C37" s="16" t="str">
         <f>A19</f>
         <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>85</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1a0de912-3559-422b-be3a-f5dd854f25c4</v>
+        <f>A59</f>
+        <v>fe140809-8a79-4641-ac54-3a8d47738707</v>
       </c>
       <c r="C38" s="16" t="str">
-        <f>A20</f>
-        <v>fdb4f75b-784f-4da2-84cf-1893fdb8ab1d</v>
+        <f>A19</f>
+        <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" s="12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>256768e3-8e04-4cef-b9c6-4de1fb124e46</v>
+        <f>A60</f>
+        <v>1a0de912-3559-422b-be3a-f5dd854f25c4</v>
       </c>
       <c r="C39" s="16" t="str">
         <f>A20</f>
         <v>fdb4f75b-784f-4da2-84cf-1893fdb8ab1d</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>3c0595e8-de33-46d1-bb93-cacf96799a40</v>
+        <f>A61</f>
+        <v>256768e3-8e04-4cef-b9c6-4de1fb124e46</v>
       </c>
       <c r="C40" s="16" t="str">
-        <f>A15</f>
-        <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
+        <f>A20</f>
+        <v>fdb4f75b-784f-4da2-84cf-1893fdb8ab1d</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>adcc8bde-9ecc-4efe-a059-66696db0c5e0</v>
+        <f>A62</f>
+        <v>3c0595e8-de33-46d1-bb93-cacf96799a40</v>
       </c>
       <c r="C41" s="16" t="str">
         <f>A15</f>
         <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41" s="12">
         <v>1</v>
@@ -2030,27 +2060,27 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>6d2f8efa-6052-4a07-a477-2e9f8bceba49</v>
+        <f>A63</f>
+        <v>adcc8bde-9ecc-4efe-a059-66696db0c5e0</v>
       </c>
       <c r="C42" s="16" t="str">
         <f>A15</f>
         <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -2058,13 +2088,33 @@
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="3"/>
-      <c r="K43" s="14"/>
+      <c r="A43" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="16" t="str">
+        <f>A64</f>
+        <v>6d2f8efa-6052-4a07-a477-2e9f8bceba49</v>
+      </c>
+      <c r="C43" s="16" t="str">
+        <f>A15</f>
+        <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="14"/>
@@ -2076,137 +2126,115 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="3"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="5" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G47" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H47" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="7" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K48" s="7" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="12">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>77</v>
@@ -2215,25 +2243,29 @@
         <v>76</v>
       </c>
       <c r="G49" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+      <c r="J49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>77</v>
@@ -2242,7 +2274,7 @@
         <v>76</v>
       </c>
       <c r="G50" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -2251,16 +2283,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>77</v>
@@ -2269,7 +2301,7 @@
         <v>76</v>
       </c>
       <c r="G51" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -2278,16 +2310,16 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>77</v>
@@ -2296,7 +2328,7 @@
         <v>76</v>
       </c>
       <c r="G52" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -2305,16 +2337,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>77</v>
@@ -2323,7 +2355,7 @@
         <v>76</v>
       </c>
       <c r="G53" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -2332,16 +2364,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>77</v>
@@ -2350,7 +2382,7 @@
         <v>76</v>
       </c>
       <c r="G54" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -2359,16 +2391,16 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>77</v>
@@ -2377,7 +2409,7 @@
         <v>76</v>
       </c>
       <c r="G55" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -2386,16 +2418,16 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>77</v>
@@ -2404,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="G56" s="12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -2413,16 +2445,16 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>77</v>
@@ -2431,7 +2463,7 @@
         <v>76</v>
       </c>
       <c r="G57" s="12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2440,16 +2472,16 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>77</v>
@@ -2458,7 +2490,7 @@
         <v>76</v>
       </c>
       <c r="G58" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2467,16 +2499,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>77</v>
@@ -2485,7 +2517,7 @@
         <v>76</v>
       </c>
       <c r="G59" s="12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -2494,16 +2526,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>77</v>
@@ -2512,7 +2544,7 @@
         <v>76</v>
       </c>
       <c r="G60" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2521,16 +2553,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>77</v>
@@ -2539,7 +2571,7 @@
         <v>76</v>
       </c>
       <c r="G61" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -2548,16 +2580,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>77</v>
@@ -2574,26 +2606,80 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="3"/>
-      <c r="K63" s="14"/>
+      <c r="A63" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="12">
+        <v>1</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="14"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="K64" s="14"/>
+      <c r="A64" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="3"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="14"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="K66" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-is/src/main/resources/plugin/is/oob/cab/i.directory.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/plugin/is/oob/cab/i.directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/plugin/is/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB578463-EDA5-474E-B5BC-5D1DBA1E2F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6EFD03-B184-1A4C-BA55-2A2341CCD911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62400" yWindow="-4720" windowWidth="42840" windowHeight="26960" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
   <si>
     <t>key</t>
   </si>
@@ -597,36 +597,6 @@
   </si>
   <si>
     <t>6d2f8efa-6052-4a07-a477-2e9f8bceba49</t>
-  </si>
-  <si>
-    <t>res.directory.trash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除到回收站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401245ea-fc64-4706-af86-a59ed3e3940d</t>
-  </si>
-  <si>
-    <t>act.directory.trash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/i-directory/trash/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acd60b34-f7cf-4992-a082-4ba9bc4ee940</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K66"/>
+  <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1657,7 +1627,7 @@
         <v>166</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f t="shared" ref="B28:B32" si="0">A49</f>
+        <f t="shared" ref="B28:B31" si="0">A48</f>
         <v>18f7c146-c1c7-495d-b8e9-cb928caa6436</v>
       </c>
       <c r="C28" s="16" t="str">
@@ -1770,143 +1740,143 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B32" s="16" t="str">
+        <f>A52</f>
+        <v>ac5e7b95-d250-475a-be6d-4601106a51d8</v>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f>A15</f>
+        <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="16" t="str">
         <f>A53</f>
-        <v>401245ea-fc64-4706-af86-a59ed3e3940d</v>
-      </c>
-      <c r="C32" s="16" t="str">
+        <v>36ed885e-e1b2-4f02-89e9-26845b13829b</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f>A17</f>
+        <v>f79de101-51d4-4fa7-9e4f-573e317a45f5</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="12">
+        <v>8</v>
+      </c>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="16" t="str">
+        <f>A54</f>
+        <v>95f8fcae-4480-487f-af3f-463cb0048d62</v>
+      </c>
+      <c r="C34" s="16" t="str">
         <f>A18</f>
         <v>7d87eb8f-6018-401e-9974-380ec651ea04</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="12">
+      <c r="D34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="12">
         <v>12</v>
-      </c>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="16" t="str">
-        <f>A54</f>
-        <v>ac5e7b95-d250-475a-be6d-4601106a51d8</v>
-      </c>
-      <c r="C33" s="16" t="str">
-        <f>A15</f>
-        <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="12">
-        <v>1</v>
-      </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="16" t="str">
-        <f>A55</f>
-        <v>36ed885e-e1b2-4f02-89e9-26845b13829b</v>
-      </c>
-      <c r="C34" s="16" t="str">
-        <f>A17</f>
-        <v>f79de101-51d4-4fa7-9e4f-573e317a45f5</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="12">
-        <v>8</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B35" s="16" t="str">
-        <f>A56</f>
-        <v>95f8fcae-4480-487f-af3f-463cb0048d62</v>
+        <f>A55</f>
+        <v>ce69b312-a028-48b1-9f93-537e9932b11a</v>
       </c>
       <c r="C35" s="16" t="str">
-        <f>A18</f>
-        <v>7d87eb8f-6018-401e-9974-380ec651ea04</v>
+        <f>A19</f>
+        <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H35" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B36" s="16" t="str">
-        <f>A57</f>
-        <v>ce69b312-a028-48b1-9f93-537e9932b11a</v>
+        <f>A56</f>
+        <v>afeff157-06cc-47c6-b157-8c8d08d75d6c</v>
       </c>
       <c r="C36" s="16" t="str">
         <f>A19</f>
         <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36" s="12">
         <v>3</v>
@@ -1915,143 +1885,143 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f>A58</f>
-        <v>afeff157-06cc-47c6-b157-8c8d08d75d6c</v>
+        <f>A57</f>
+        <v>fe140809-8a79-4641-ac54-3a8d47738707</v>
       </c>
       <c r="C37" s="16" t="str">
         <f>A19</f>
         <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>85</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37" s="12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B38" s="16" t="str">
-        <f>A59</f>
-        <v>fe140809-8a79-4641-ac54-3a8d47738707</v>
+        <f>A58</f>
+        <v>1a0de912-3559-422b-be3a-f5dd854f25c4</v>
       </c>
       <c r="C38" s="16" t="str">
-        <f>A19</f>
-        <v>6139c3b9-ab59-4a65-ae3e-a39cccdafc02</v>
+        <f>A20</f>
+        <v>fdb4f75b-784f-4da2-84cf-1893fdb8ab1d</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38" s="12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f>A60</f>
-        <v>1a0de912-3559-422b-be3a-f5dd854f25c4</v>
+        <f>A59</f>
+        <v>256768e3-8e04-4cef-b9c6-4de1fb124e46</v>
       </c>
       <c r="C39" s="16" t="str">
         <f>A20</f>
         <v>fdb4f75b-784f-4da2-84cf-1893fdb8ab1d</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B40" s="16" t="str">
-        <f>A61</f>
-        <v>256768e3-8e04-4cef-b9c6-4de1fb124e46</v>
+        <f>A60</f>
+        <v>3c0595e8-de33-46d1-bb93-cacf96799a40</v>
       </c>
       <c r="C40" s="16" t="str">
-        <f>A20</f>
-        <v>fdb4f75b-784f-4da2-84cf-1893fdb8ab1d</v>
+        <f>A15</f>
+        <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B41" s="16" t="str">
-        <f>A62</f>
-        <v>3c0595e8-de33-46d1-bb93-cacf96799a40</v>
+        <f>A61</f>
+        <v>adcc8bde-9ecc-4efe-a059-66696db0c5e0</v>
       </c>
       <c r="C41" s="16" t="str">
         <f>A15</f>
         <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H41" s="12">
         <v>1</v>
@@ -2060,27 +2030,27 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B42" s="16" t="str">
-        <f>A63</f>
-        <v>adcc8bde-9ecc-4efe-a059-66696db0c5e0</v>
+        <f>A62</f>
+        <v>6d2f8efa-6052-4a07-a477-2e9f8bceba49</v>
       </c>
       <c r="C42" s="16" t="str">
         <f>A15</f>
         <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -2088,33 +2058,13 @@
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="16" t="str">
-        <f>A64</f>
-        <v>6d2f8efa-6052-4a07-a477-2e9f8bceba49</v>
-      </c>
-      <c r="C43" s="16" t="str">
-        <f>A15</f>
-        <v>9641fd84-950f-4d4a-a16b-4de6b9dcc52c</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="12">
-        <v>1</v>
-      </c>
-      <c r="I43" s="12"/>
+      <c r="A43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="3"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="14"/>
@@ -2126,115 +2076,137 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="3"/>
-      <c r="K45" s="14"/>
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="12">
         <v>1</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>74</v>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>77</v>
@@ -2243,29 +2215,25 @@
         <v>76</v>
       </c>
       <c r="G49" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>77</v>
@@ -2274,7 +2242,7 @@
         <v>76</v>
       </c>
       <c r="G50" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -2283,16 +2251,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>77</v>
@@ -2301,7 +2269,7 @@
         <v>76</v>
       </c>
       <c r="G51" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -2310,16 +2278,16 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>77</v>
@@ -2328,7 +2296,7 @@
         <v>76</v>
       </c>
       <c r="G52" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -2337,16 +2305,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>77</v>
@@ -2355,7 +2323,7 @@
         <v>76</v>
       </c>
       <c r="G53" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -2364,16 +2332,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>77</v>
@@ -2382,7 +2350,7 @@
         <v>76</v>
       </c>
       <c r="G54" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -2391,16 +2359,16 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>77</v>
@@ -2409,7 +2377,7 @@
         <v>76</v>
       </c>
       <c r="G55" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -2418,16 +2386,16 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>77</v>
@@ -2436,7 +2404,7 @@
         <v>76</v>
       </c>
       <c r="G56" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -2445,16 +2413,16 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>77</v>
@@ -2463,7 +2431,7 @@
         <v>76</v>
       </c>
       <c r="G57" s="12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2472,16 +2440,16 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>77</v>
@@ -2490,7 +2458,7 @@
         <v>76</v>
       </c>
       <c r="G58" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2499,16 +2467,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>77</v>
@@ -2517,7 +2485,7 @@
         <v>76</v>
       </c>
       <c r="G59" s="12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -2526,16 +2494,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>77</v>
@@ -2544,7 +2512,7 @@
         <v>76</v>
       </c>
       <c r="G60" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2553,16 +2521,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>77</v>
@@ -2571,7 +2539,7 @@
         <v>76</v>
       </c>
       <c r="G61" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -2580,16 +2548,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>77</v>
@@ -2606,80 +2574,26 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="12">
-        <v>1</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+      <c r="A63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="3"/>
+      <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" s="12">
-        <v>1</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="3"/>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="14"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="K66" s="14"/>
+      <c r="A64" s="14"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="K64" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
